--- a/modules_schedules/Y5_B2526_General_&_Special_Internal_2_B2_schedule.xlsx
+++ b/modules_schedules/Y5_B2526_General_&_Special_Internal_2_B2_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,6 +1917,9876 @@
         <v>360</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2026</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>11/02/2026</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>B2-A2</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F83" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2026</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="F89" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E91" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2026</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E93" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F93" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F95" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E97" s="7" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F99" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E101" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F101" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D103" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E103" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F103" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D105" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F107" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F109" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F111" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F113" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G114" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F117" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G118" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G120" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>B2-B1</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>24/01/2026</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G122" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C123" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>26/01/2026</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E125" s="7" t="inlineStr">
+        <is>
+          <t>27/01/2026</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G125" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>28/01/2026</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E127" s="7" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G127" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2026</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G129" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2026</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G132" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E133" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G133" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G134" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G135" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G137" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G138" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E139" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G139" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G140" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E141" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F141" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G141" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G142" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C143" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E143" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F143" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G143" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G144" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E145" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F145" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G145" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G146" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C147" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E147" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F147" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G147" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G148" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E149" s="7" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F149" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G149" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G150" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B151" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C151" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E151" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F151" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G151" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G152" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E153" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F153" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G153" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E155" s="7" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F155" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E157" s="7" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F157" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G158" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B159" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C159" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D159" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E159" s="7" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F159" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G159" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G160" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B161" s="6" t="inlineStr">
+        <is>
+          <t>B2-B2</t>
+        </is>
+      </c>
+      <c r="C161" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D161" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E161" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F161" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G161" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G162" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C163" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D163" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E163" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F163" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G163" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F164" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G164" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B165" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C165" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D165" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E165" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F165" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G165" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F166" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G166" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B167" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C167" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D167" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E167" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F167" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G167" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G168" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B169" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C169" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D169" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E169" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F169" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G169" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F170" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G170" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B171" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C171" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D171" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E171" s="7" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F171" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G171" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F172" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G172" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C173" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E173" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F173" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G173" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F174" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G174" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C175" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D175" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E175" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F175" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G175" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F176" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G176" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B177" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C177" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E177" s="7" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="F177" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G177" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2026</t>
+        </is>
+      </c>
+      <c r="F178" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G178" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B179" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C179" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D179" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E179" s="7" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="F179" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G179" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="F180" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G180" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B181" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C181" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D181" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E181" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2026</t>
+        </is>
+      </c>
+      <c r="F181" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G181" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F182" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G182" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C183" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D183" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E183" s="7" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F183" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G183" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G184" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B185" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C185" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D185" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E185" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F185" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G185" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F186" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G186" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B187" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C187" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D187" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E187" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F187" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G187" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F188" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G188" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B189" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C189" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D189" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E189" s="7" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F189" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G189" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F190" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G190" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B191" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C191" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D191" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E191" s="7" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F191" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G191" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E192" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F192" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G192" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C193" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D193" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E193" s="7" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F193" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G193" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F194" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G194" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C195" s="6" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D195" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E195" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F195" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G195" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E196" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F196" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G196" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B197" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C197" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D197" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E197" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F197" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G197" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G198" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B199" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C199" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D199" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E199" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F199" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G199" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F200" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G200" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B201" s="6" t="inlineStr">
+        <is>
+          <t>B2-C1</t>
+        </is>
+      </c>
+      <c r="C201" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D201" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E201" s="7" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F201" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G201" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F202" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G202" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C203" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D203" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E203" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F203" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G203" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F204" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G204" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B205" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C205" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D205" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E205" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F205" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G205" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F206" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G206" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B207" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C207" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D207" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E207" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F207" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G207" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F208" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G208" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B209" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C209" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D209" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E209" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F209" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G209" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F210" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G210" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B211" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C211" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D211" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E211" s="7" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F211" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G211" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F212" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G212" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B213" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C213" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D213" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E213" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F213" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G213" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E214" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F214" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G214" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C215" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D215" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E215" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F215" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G215" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F216" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G216" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B217" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C217" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D217" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E217" s="7" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="F217" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G217" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2026</t>
+        </is>
+      </c>
+      <c r="F218" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G218" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B219" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C219" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D219" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E219" s="7" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="F219" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G219" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="F220" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G220" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B221" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C221" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D221" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E221" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2026</t>
+        </is>
+      </c>
+      <c r="F221" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G221" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F222" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G222" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C223" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D223" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E223" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F223" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G223" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F224" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G224" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C225" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D225" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E225" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F225" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G225" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F226" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G226" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B227" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C227" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D227" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E227" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F227" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G227" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F228" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G228" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B229" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C229" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D229" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E229" s="7" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F229" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G229" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F230" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G230" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B231" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C231" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D231" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E231" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F231" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G231" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F232" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G232" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B233" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C233" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D233" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E233" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F233" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G233" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F234" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G234" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B235" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C235" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D235" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E235" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F235" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G235" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F236" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G236" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B237" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C237" s="6" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D237" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E237" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F237" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G237" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E238" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F238" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G238" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B239" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C239" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D239" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E239" s="7" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F239" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G239" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E240" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F240" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G240" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B241" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C241" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D241" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E241" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F241" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G241" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F242" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G242" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B243" s="6" t="inlineStr">
+        <is>
+          <t>B2-C2</t>
+        </is>
+      </c>
+      <c r="C243" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D243" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E243" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F243" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G243" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F244" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G244" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B245" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C245" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D245" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E245" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F245" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G245" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F246" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G246" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B247" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C247" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D247" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E247" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F247" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G247" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E248" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F248" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G248" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B249" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C249" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D249" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E249" s="7" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F249" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G249" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E250" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F250" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G250" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B251" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C251" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D251" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E251" s="7" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F251" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G251" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F252" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G252" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B253" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C253" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D253" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E253" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F253" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G253" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F254" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G254" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B255" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C255" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D255" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E255" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F255" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G255" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E256" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F256" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G256" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B257" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C257" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D257" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E257" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F257" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G257" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E258" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F258" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G258" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B259" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C259" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D259" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E259" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F259" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G259" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E260" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F260" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G260" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B261" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C261" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D261" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E261" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F261" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G261" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F262" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G262" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B263" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C263" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D263" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E263" s="7" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F263" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G263" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E264" s="3" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="F264" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G264" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B265" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C265" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D265" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E265" s="7" t="inlineStr">
+        <is>
+          <t>08/02/2026</t>
+        </is>
+      </c>
+      <c r="F265" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G265" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E266" s="3" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="F266" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G266" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B267" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C267" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D267" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E267" s="7" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="F267" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G267" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E268" s="3" t="inlineStr">
+        <is>
+          <t>11/02/2026</t>
+        </is>
+      </c>
+      <c r="F268" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G268" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B269" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C269" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D269" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E269" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F269" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G269" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E270" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F270" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G270" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B271" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C271" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D271" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E271" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F271" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G271" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E272" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F272" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G272" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B273" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C273" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D273" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E273" s="7" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F273" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G273" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E274" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F274" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G274" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B275" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C275" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D275" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E275" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F275" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G275" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E276" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F276" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G276" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B277" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C277" s="6" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D277" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E277" s="7" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F277" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G277" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E278" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F278" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G278" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B279" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C279" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D279" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E279" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F279" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G279" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E280" s="3" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F280" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G280" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B281" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C281" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D281" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E281" s="7" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F281" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G281" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E282" s="3" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F282" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G282" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B283" s="6" t="inlineStr">
+        <is>
+          <t>B2-D1</t>
+        </is>
+      </c>
+      <c r="C283" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D283" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E283" s="7" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F283" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G283" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C284" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E284" s="3" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F284" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G284" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B285" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C285" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D285" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E285" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F285" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G285" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C286" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E286" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F286" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G286" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B287" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C287" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D287" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E287" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F287" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G287" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C288" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E288" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F288" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G288" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B289" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C289" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D289" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E289" s="7" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F289" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G289" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E290" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F290" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G290" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B291" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C291" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D291" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E291" s="7" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F291" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G291" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C292" s="2" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E292" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F292" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G292" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B293" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C293" s="6" t="inlineStr">
+        <is>
+          <t>endocrinology</t>
+        </is>
+      </c>
+      <c r="D293" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E293" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F293" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G293" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C294" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E294" s="3" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F294" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G294" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B295" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C295" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D295" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E295" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F295" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G295" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E296" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F296" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G296" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B297" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C297" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D297" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E297" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F297" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G297" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C298" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E298" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F298" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G298" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B299" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C299" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D299" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E299" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F299" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G299" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C300" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E300" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F300" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G300" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B301" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C301" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D301" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E301" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F301" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G301" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C302" s="2" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E302" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F302" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G302" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B303" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C303" s="6" t="inlineStr">
+        <is>
+          <t>gastroenterology</t>
+        </is>
+      </c>
+      <c r="D303" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E303" s="7" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F303" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G303" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C304" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E304" s="3" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F304" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G304" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B305" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C305" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D305" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E305" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F305" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G305" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C306" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E306" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F306" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G306" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B307" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C307" s="6" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D307" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E307" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F307" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G307" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C308" s="2" t="inlineStr">
+        <is>
+          <t>nephrology</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E308" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F308" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G308" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B309" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C309" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D309" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E309" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F309" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G309" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C310" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E310" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F310" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G310" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B311" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C311" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D311" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E311" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F311" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G311" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C312" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E312" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F312" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G312" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B313" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C313" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D313" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E313" s="7" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F313" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G313" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C314" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E314" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F314" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G314" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B315" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C315" s="6" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D315" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E315" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F315" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G315" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="inlineStr">
+        <is>
+          <t>neurology</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E316" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F316" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G316" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B317" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C317" s="6" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D317" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E317" s="7" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F317" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G317" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>physical medicine</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E318" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F318" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G318" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B319" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C319" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D319" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E319" s="7" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="F319" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G319" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E320" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2026</t>
+        </is>
+      </c>
+      <c r="F320" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G320" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B321" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C321" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D321" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E321" s="7" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="F321" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G321" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E322" s="3" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="F322" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G322" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B323" s="6" t="inlineStr">
+        <is>
+          <t>B2-D2</t>
+        </is>
+      </c>
+      <c r="C323" s="6" t="inlineStr">
+        <is>
+          <t>rheumatology</t>
+        </is>
+      </c>
+      <c r="D323" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E323" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2026</t>
+        </is>
+      </c>
+      <c r="F323" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G323" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
